--- a/biology/Botanique/Prix_du_paysage/Prix_du_paysage.xlsx
+++ b/biology/Botanique/Prix_du_paysage/Prix_du_paysage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix du paysage, institué en 2004 en application de la Convention européenne du paysage, remplace le grand prix du paysage et le trophée du paysage, organisés tous les ans en alternance jusqu’en 2001. Il récompense annuellement une réalisation exemplaire, achevée depuis au moins 3 ans, et distingue conjointement le maître d’ouvrage public et le ou la paysagiste maître d’œuvre, ainsi que la ou les associations éventuellement impliquées dans la réalisation.
@@ -512,9 +524,11 @@
           <t>Grand prix du paysage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le grand prix du paysage a été créé en 1990[1]. Il est décerné tous les deux ans, les années paires, par le gouvernement français à « un paysagiste concepteur de nationalité française dont il consacre soit l’ensemble des réalisations, soit une œuvre exceptionnelle ou exemplaire, soit sa contribution au développement des idées, des concepts dans le domaine du paysage » 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le grand prix du paysage a été créé en 1990. Il est décerné tous les deux ans, les années paires, par le gouvernement français à « un paysagiste concepteur de nationalité française dont il consacre soit l’ensemble des réalisations, soit une œuvre exceptionnelle ou exemplaire, soit sa contribution au développement des idées, des concepts dans le domaine du paysage » 
 Prix 1990 - Jacques Simon
 Prix 1992 - Michel Corajoud
 Prix 1994 - Allain Provost et Jacques Sgard
@@ -548,7 +562,9 @@
           <t>Trophée du paysage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le trophée du paysage est décerné tous les deux ans, les années impaires, par le gouvernement français à un paysagiste débutant ainsi qu'à ses partenaires (maître d'ouvrage et gestionnaire) pour la conception d'une opération exemplaire réalisée depuis au moins 3 ans.
 Prix 1989 - Reconquête du terril de Wattrelos (Nord) Commune de Wattrelos, Agence Paysages à Lille
@@ -585,16 +601,18 @@
           <t>Le grand prix national du paysage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce prix s’appuie sur trois axes d’actions :
 développer la connaissance
 renforcer la cohérence et
 soutenir la compétence dont les synergies entre maîtrise d’ouvrage et maîtrise d’œuvre.
-Prix 2005 - Le parc Saint-Pierre[2] à Amiens par Jacqueline Osty
-Prix 2006 - Le parc de la Deûle[3] à Lille par Jacques Simon et  JNC INTERNATIONAL SA (Jean-Noël Capart, Yves Hubert)
-Prix 2007 - Le parc des Cormailles[4] à Ivry-sur-Seine par Henri Bava, Michel Hoessler, Olivier Philippe : Agence Ter. Maîtrise d’ouvrage : Conseil général du Val de Marne.
-Prix 2009 - La base Régionale de Plein Air et de Loisirs du Port aux Cerises[5] située sur les communes de Draveil, Juvisy et Vigneux en Essonne par l'Agence Latitude Nord (Laurence Vacherot et Gilles Vexlard).
+Prix 2005 - Le parc Saint-Pierre à Amiens par Jacqueline Osty
+Prix 2006 - Le parc de la Deûle à Lille par Jacques Simon et  JNC INTERNATIONAL SA (Jean-Noël Capart, Yves Hubert)
+Prix 2007 - Le parc des Cormailles à Ivry-sur-Seine par Henri Bava, Michel Hoessler, Olivier Philippe : Agence Ter. Maîtrise d’ouvrage : Conseil général du Val de Marne.
+Prix 2009 - La base Régionale de Plein Air et de Loisirs du Port aux Cerises située sur les communes de Draveil, Juvisy et Vigneux en Essonne par l'Agence Latitude Nord (Laurence Vacherot et Gilles Vexlard).
 Prix 2012 - Le parc du Grand Pré sur la commune de Langueux dans les Côtes-d'Armor par Laure Planchais paysagiste. Maîtrise d'ouvrage : commune de Langueux.
 Prix 2016 - La lisière urbaine de Saint-Paul de la Réunion par l'agence Folléa-Gautier (Bertrand Folléa et Claire Gautier), maîtrise d'ouvrage : Région Réunion.
 Prix 2018 - Le tandem Atelier Jacqueline Osty et Associés - In Situ Paysage et urbanisme a remporté l’édition 2018 du Grand prix national du paysage, pour l'île à charbon de Rouen (promenade fluviale rive gauche - mutation au long cours des anciennes emprises portuaires).
